--- a/src/test/resources/mk/test-invoices.xlsx
+++ b/src/test/resources/mk/test-invoices.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvancl\Documents\temp\opendata\src\test\resources\mk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Zálohové faktury" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Došlé faktury" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Platební poukazy" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Dobropisy" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Zálohové faktury" sheetId="1" r:id="rId1"/>
+    <sheet name="Došlé faktury" sheetId="2" r:id="rId2"/>
+    <sheet name="Platební poukazy" sheetId="3" r:id="rId3"/>
+    <sheet name="Dobropisy" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="231">
   <si>
     <t>Řada dokladů</t>
   </si>
@@ -29,7 +33,7 @@
     <t>Variabilní  symbol</t>
   </si>
   <si>
-    <t>Název obchodního partnera </t>
+    <t>Název obchodního partnera</t>
   </si>
   <si>
     <t>Datum přijetí</t>
@@ -708,18 +712,20 @@
   </si>
   <si>
     <t>05.01.2015</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot; Kč&quot;;\-#,##0.00&quot; Kč&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot; Kč&quot;;\-#,##0.00&quot; Kč&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -728,22 +734,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -767,159 +758,367 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+  <a:themeElements>
+    <a:clrScheme name="Kancelář">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kancelář">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kancelář">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.5546875"/>
+    <col min="3" max="3" width="12.33203125"/>
+    <col min="4" max="4" width="21.88671875"/>
+    <col min="5" max="5" width="19.6640625"/>
+    <col min="6" max="10" width="8.5546875"/>
+    <col min="11" max="11" width="19.33203125"/>
+    <col min="12" max="12" width="13.6640625"/>
+    <col min="13" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +1131,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -973,11 +1174,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -989,21 +1190,21 @@
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>42011</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>42019</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>42019</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="8">
         <v>70000</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="8">
         <v>70000</v>
       </c>
       <c r="M2" s="4"/>
@@ -1015,11 +1216,11 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1031,21 +1232,21 @@
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>42013</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>42019</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>42019</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="8">
         <v>275000</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="8">
         <v>275000</v>
       </c>
       <c r="M3" s="4"/>
@@ -1057,11 +1258,11 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1073,21 +1274,21 @@
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>42033</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>42049</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>42048</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="8">
         <v>611550</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="8">
         <v>611550</v>
       </c>
       <c r="M4" s="4"/>
@@ -1100,40 +1301,32 @@
       <c r="R4" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.5546875"/>
+    <col min="3" max="3" width="13"/>
+    <col min="4" max="4" width="20.6640625"/>
+    <col min="5" max="5" width="26.44140625"/>
+    <col min="6" max="10" width="8.5546875"/>
+    <col min="11" max="11" width="18.33203125"/>
+    <col min="12" max="12" width="15.5546875"/>
+    <col min="13" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1339,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,11 +1382,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1203,21 +1398,21 @@
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>42017</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>42054</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>42023</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="8">
         <v>51608</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="8">
         <v>51608</v>
       </c>
       <c r="M2" s="4"/>
@@ -1229,11 +1424,11 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1245,21 +1440,21 @@
       <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>42009</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>42009</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>42013</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="8">
         <v>63478</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="8">
         <v>63478</v>
       </c>
       <c r="M3" s="4"/>
@@ -1271,11 +1466,11 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1287,22 +1482,22 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>42023</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>42044</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>42039</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8" t="n">
-        <v>73651.82</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>73651.82</v>
+      <c r="K4" s="8">
+        <v>73651.820000000007</v>
+      </c>
+      <c r="L4" s="8">
+        <v>73651.820000000007</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
@@ -1313,11 +1508,11 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1329,21 +1524,21 @@
       <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>42024</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>42034</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>42037</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="8">
         <v>74681</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="8">
         <v>74681</v>
       </c>
       <c r="M5" s="4"/>
@@ -1355,11 +1550,11 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1371,21 +1566,21 @@
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="6">
         <v>42009</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="6">
         <v>42019</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="6">
         <v>42019</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="8">
         <v>96102</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="8">
         <v>96102</v>
       </c>
       <c r="M6" s="4"/>
@@ -1397,11 +1592,11 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1413,21 +1608,21 @@
       <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>42009</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="6">
         <v>42018</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="6">
         <v>42020</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="8">
         <v>97119.91</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="8">
         <v>97119.91</v>
       </c>
       <c r="M7" s="4"/>
@@ -1439,11 +1634,11 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1455,21 +1650,21 @@
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>42017</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>42034</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>42023</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="8">
         <v>97927</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="8">
         <v>97927</v>
       </c>
       <c r="M8" s="4"/>
@@ -1481,11 +1676,11 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1497,21 +1692,21 @@
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>42019</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>42034</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>42024</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="8">
         <v>97927</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="8">
         <v>97927</v>
       </c>
       <c r="M9" s="4"/>
@@ -1523,11 +1718,11 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1539,21 +1734,21 @@
       <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>42013</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>42042</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="6">
         <v>42023</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="8">
         <v>114587</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="8">
         <v>114587</v>
       </c>
       <c r="M10" s="4"/>
@@ -1565,11 +1760,11 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1581,21 +1776,21 @@
       <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>42012</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>42025</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>42030</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="8">
         <v>116765</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="8">
         <v>116765</v>
       </c>
       <c r="M11" s="4"/>
@@ -1607,11 +1802,11 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1623,21 +1818,21 @@
       <c r="E12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>42019</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>42038</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="6">
         <v>42026</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>128908</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="8">
         <v>128908</v>
       </c>
       <c r="M12" s="4"/>
@@ -1649,11 +1844,11 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>71</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1665,21 +1860,21 @@
       <c r="E13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>42024</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>42037</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>42037</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>130234</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="8">
         <v>130234</v>
       </c>
       <c r="M13" s="4"/>
@@ -1691,11 +1886,11 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1707,21 +1902,21 @@
       <c r="E14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>42012</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="6">
         <v>42039</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="6">
         <v>42023</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="8">
         <v>152234</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="8">
         <v>152234</v>
       </c>
       <c r="M14" s="4"/>
@@ -1733,11 +1928,11 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1749,21 +1944,21 @@
       <c r="E15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>42013</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>42044</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>42019</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="8">
         <v>173347</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="8">
         <v>173347</v>
       </c>
       <c r="M15" s="4"/>
@@ -1775,11 +1970,11 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1791,21 +1986,21 @@
       <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>42019</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>42044</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>42024</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="8">
         <v>173347</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="8">
         <v>173347</v>
       </c>
       <c r="M16" s="4"/>
@@ -1817,11 +2012,11 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1833,21 +2028,21 @@
       <c r="E17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>42013</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="6">
         <v>42044</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="6">
         <v>42019</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="8">
         <v>183175</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="8">
         <v>183175</v>
       </c>
       <c r="M17" s="4"/>
@@ -1859,11 +2054,11 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1875,21 +2070,21 @@
       <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="6">
         <v>42019</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="6">
         <v>42044</v>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="6">
         <v>42024</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="8">
         <v>183175</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="8">
         <v>183175</v>
       </c>
       <c r="M18" s="4"/>
@@ -1901,11 +2096,11 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>97</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1917,21 +2112,21 @@
       <c r="E19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>42034</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="6">
         <v>42048</v>
       </c>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="6">
         <v>42059</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="8">
         <v>377779.5</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="8">
         <v>377779.5</v>
       </c>
       <c r="M19" s="4"/>
@@ -1943,11 +2138,11 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1959,21 +2154,21 @@
       <c r="E20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>42012</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="6">
         <v>42025</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="6">
         <v>42023</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="8">
         <v>471622.9</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="8">
         <v>471622.9</v>
       </c>
       <c r="M20" s="4"/>
@@ -1985,11 +2180,11 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2001,21 +2196,21 @@
       <c r="E21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="6">
         <v>42009</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="6">
         <v>42016</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="6">
         <v>42018</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="8">
         <v>500000</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="8">
         <v>500000</v>
       </c>
       <c r="M21" s="4"/>
@@ -2027,11 +2222,11 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>78</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2043,21 +2238,21 @@
       <c r="E22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="6">
         <v>42030</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="6">
         <v>42060</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="6">
         <v>42046</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="8">
         <v>1228150</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="8">
         <v>1228150</v>
       </c>
       <c r="M22" s="4"/>
@@ -2069,11 +2264,11 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2085,21 +2280,21 @@
       <c r="E23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="6">
         <v>42009</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="6">
         <v>42026</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="6">
         <v>42017</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="8">
         <v>1463140</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="8">
         <v>1463140</v>
       </c>
       <c r="M23" s="4"/>
@@ -2111,11 +2306,11 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2127,21 +2322,21 @@
       <c r="E24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="6">
         <v>42032</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="6">
         <v>42052</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="6">
         <v>42039</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="8">
         <v>1500000</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="8">
         <v>1500000</v>
       </c>
       <c r="M24" s="4"/>
@@ -2154,40 +2349,32 @@
       <c r="R24" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5708502024291"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.5546875"/>
+    <col min="3" max="3" width="14"/>
+    <col min="4" max="4" width="35"/>
+    <col min="5" max="5" width="36.5546875"/>
+    <col min="6" max="10" width="8.5546875"/>
+    <col min="11" max="11" width="16.6640625"/>
+    <col min="12" max="12" width="18.109375"/>
+    <col min="13" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2387,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2241,11 +2430,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2257,21 +2446,21 @@
       <c r="E2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>42032</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>42046</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>42038</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="8">
         <v>12109000</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="8">
         <v>12109000</v>
       </c>
       <c r="M2" s="4"/>
@@ -2283,11 +2472,11 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2299,21 +2488,21 @@
       <c r="E3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>42031</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>42045</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>42033</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="8">
         <v>1409000</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="8">
         <v>1409000</v>
       </c>
       <c r="M3" s="4"/>
@@ -2325,11 +2514,11 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2341,21 +2530,21 @@
       <c r="E4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>42031</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>42045</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>42033</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="8">
         <v>3725000</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="8">
         <v>3725000</v>
       </c>
       <c r="M4" s="4"/>
@@ -2367,11 +2556,11 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2383,21 +2572,21 @@
       <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>42031</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>42045</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>42033</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="8">
         <v>5574000</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="8">
         <v>5574000</v>
       </c>
       <c r="M5" s="4"/>
@@ -2409,11 +2598,11 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2425,21 +2614,21 @@
       <c r="E6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="6">
         <v>42031</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="6">
         <v>42045</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="6">
         <v>42033</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="8">
         <v>12093000</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="8">
         <v>12093000</v>
       </c>
       <c r="M6" s="4"/>
@@ -2451,11 +2640,11 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2467,21 +2656,21 @@
       <c r="E7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>42031</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="6">
         <v>42045</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="6">
         <v>42033</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="8">
         <v>12626000</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="8">
         <v>12626000</v>
       </c>
       <c r="M7" s="4"/>
@@ -2493,11 +2682,11 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>149</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2509,21 +2698,21 @@
       <c r="E8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>42031</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>42045</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>42033</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="8">
         <v>12738000</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="8">
         <v>12738000</v>
       </c>
       <c r="M8" s="4"/>
@@ -2535,11 +2724,11 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>134</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2551,21 +2740,21 @@
       <c r="E9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>42031</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>42045</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>42033</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="8">
         <v>14081000</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="8">
         <v>14081000</v>
       </c>
       <c r="M9" s="4"/>
@@ -2577,11 +2766,11 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2593,21 +2782,21 @@
       <c r="E10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>42031</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>42045</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="6">
         <v>42033</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="8">
         <v>15760000</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="8">
         <v>15760000</v>
       </c>
       <c r="M10" s="4"/>
@@ -2619,11 +2808,11 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>148</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2635,21 +2824,21 @@
       <c r="E11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>42031</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>42045</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>42033</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="8">
         <v>29676000</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="8">
         <v>29676000</v>
       </c>
       <c r="M11" s="4"/>
@@ -2661,11 +2850,11 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>135</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2677,21 +2866,21 @@
       <c r="E12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>42031</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>42045</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="6">
         <v>42033</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>31000000</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="8">
         <v>31000000</v>
       </c>
       <c r="M12" s="4"/>
@@ -2703,11 +2892,11 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>144</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2719,21 +2908,21 @@
       <c r="E13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>42031</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>42045</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>42033</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>31316000</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="8">
         <v>31316000</v>
       </c>
       <c r="M13" s="4"/>
@@ -2745,11 +2934,11 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2761,21 +2950,21 @@
       <c r="E14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>42031</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="6">
         <v>42045</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="6">
         <v>42033</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="8">
         <v>32335000</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="8">
         <v>32335000</v>
       </c>
       <c r="M14" s="4"/>
@@ -2787,11 +2976,11 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>147</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2803,21 +2992,21 @@
       <c r="E15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>42031</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>42045</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>42033</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="8">
         <v>44996000</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="8">
         <v>44996000</v>
       </c>
       <c r="M15" s="4"/>
@@ -2829,11 +3018,11 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>133</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2845,21 +3034,21 @@
       <c r="E16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>42031</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>42045</v>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="6">
         <v>42033</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="8">
         <v>48529000</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="8">
         <v>48529000</v>
       </c>
       <c r="M16" s="4"/>
@@ -2871,11 +3060,11 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2887,21 +3076,21 @@
       <c r="E17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="6">
         <v>42031</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="6">
         <v>42045</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="6">
         <v>42033</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="8">
         <v>82957000</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="8">
         <v>82957000</v>
       </c>
       <c r="M17" s="4"/>
@@ -2913,11 +3102,11 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>137</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2929,21 +3118,21 @@
       <c r="E18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="6">
         <v>42031</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="6">
         <v>42045</v>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="6">
         <v>42033</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="8">
         <v>114472000</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="8">
         <v>114472000</v>
       </c>
       <c r="M18" s="4"/>
@@ -2955,11 +3144,11 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="9">
         <v>139</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2971,21 +3160,21 @@
       <c r="E19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>42031</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="11">
         <v>42045</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="11">
         <v>42033</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="13">
         <v>951466000</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="13">
         <v>951466000</v>
       </c>
       <c r="M19" s="9"/>
@@ -2997,11 +3186,11 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3013,21 +3202,21 @@
       <c r="E20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>42006</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="6">
         <v>42020</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="6">
         <v>42009</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="8">
         <v>717000</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="8">
         <v>717000</v>
       </c>
       <c r="M20" s="4"/>
@@ -3039,11 +3228,11 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -3055,21 +3244,21 @@
       <c r="E21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="6">
         <v>42006</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="6">
         <v>42020</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="6">
         <v>42009</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="8">
         <v>887000</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="8">
         <v>887000</v>
       </c>
       <c r="M21" s="4"/>
@@ -3081,11 +3270,11 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -3097,21 +3286,21 @@
       <c r="E22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="6">
         <v>42006</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="G22" s="6">
         <v>42020</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="6">
         <v>42009</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="8">
         <v>1054000</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="8">
         <v>1054000</v>
       </c>
       <c r="M22" s="4"/>
@@ -3123,11 +3312,11 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -3139,21 +3328,21 @@
       <c r="E23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="6">
         <v>42006</v>
       </c>
-      <c r="G23" s="6" t="n">
+      <c r="G23" s="6">
         <v>42020</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="6">
         <v>42009</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="8">
         <v>1152000</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="8">
         <v>1152000</v>
       </c>
       <c r="M23" s="4"/>
@@ -3165,11 +3354,11 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -3181,21 +3370,21 @@
       <c r="E24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="6">
         <v>42006</v>
       </c>
-      <c r="G24" s="6" t="n">
+      <c r="G24" s="6">
         <v>42020</v>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="6">
         <v>42009</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="8">
         <v>1462000</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="8">
         <v>1462000</v>
       </c>
       <c r="M24" s="4"/>
@@ -3207,11 +3396,11 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="4">
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3223,21 +3412,21 @@
       <c r="E25" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="6">
         <v>42006</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="G25" s="6">
         <v>42020</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H25" s="6">
         <v>42009</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="8">
         <v>1669000</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="8">
         <v>1669000</v>
       </c>
       <c r="M25" s="4"/>
@@ -3249,11 +3438,11 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3265,21 +3454,21 @@
       <c r="E26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="6">
         <v>42006</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="6">
         <v>42020</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="6">
         <v>42009</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="8">
         <v>1867000</v>
       </c>
-      <c r="L26" s="8" t="n">
+      <c r="L26" s="8">
         <v>1867000</v>
       </c>
       <c r="M26" s="4"/>
@@ -3291,11 +3480,11 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -3307,21 +3496,21 @@
       <c r="E27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="6">
         <v>42006</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="6">
         <v>42020</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H27" s="6">
         <v>42009</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="8">
         <v>2103000</v>
       </c>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="8">
         <v>2103000</v>
       </c>
       <c r="M27" s="4"/>
@@ -3333,11 +3522,11 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="4">
         <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -3349,21 +3538,21 @@
       <c r="E28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="6">
         <v>42006</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="6">
         <v>42020</v>
       </c>
-      <c r="H28" s="6" t="n">
+      <c r="H28" s="6">
         <v>42009</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="8">
         <v>2195000</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="8">
         <v>2195000</v>
       </c>
       <c r="M28" s="4"/>
@@ -3375,11 +3564,11 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="4">
         <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -3391,21 +3580,21 @@
       <c r="E29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="6">
         <v>42006</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="6">
         <v>42020</v>
       </c>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="6">
         <v>42009</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="8">
         <v>2439000</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L29" s="8">
         <v>2439000</v>
       </c>
       <c r="M29" s="4"/>
@@ -3417,11 +3606,11 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -3433,21 +3622,21 @@
       <c r="E30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="6">
         <v>42006</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="6">
         <v>42020</v>
       </c>
-      <c r="H30" s="6" t="n">
+      <c r="H30" s="6">
         <v>42009</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="8">
         <v>2901000</v>
       </c>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="8">
         <v>2901000</v>
       </c>
       <c r="M30" s="4"/>
@@ -3459,11 +3648,11 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="4">
         <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3475,21 +3664,21 @@
       <c r="E31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="6">
         <v>42006</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="6">
         <v>42020</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="6">
         <v>42009</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="8">
         <v>2957000</v>
       </c>
-      <c r="L31" s="8" t="n">
+      <c r="L31" s="8">
         <v>2957000</v>
       </c>
       <c r="M31" s="4"/>
@@ -3501,11 +3690,11 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="4">
         <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -3517,21 +3706,21 @@
       <c r="E32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="6">
         <v>42006</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="6">
         <v>42020</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="6">
         <v>42009</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="8">
         <v>3571000</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="8">
         <v>3571000</v>
       </c>
       <c r="M32" s="4"/>
@@ -3543,11 +3732,11 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -3559,21 +3748,21 @@
       <c r="E33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="6">
         <v>42006</v>
       </c>
-      <c r="G33" s="6" t="n">
+      <c r="G33" s="6">
         <v>42020</v>
       </c>
-      <c r="H33" s="6" t="n">
+      <c r="H33" s="6">
         <v>42009</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="8">
         <v>3586000</v>
       </c>
-      <c r="L33" s="8" t="n">
+      <c r="L33" s="8">
         <v>3586000</v>
       </c>
       <c r="M33" s="4"/>
@@ -3585,11 +3774,11 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>18</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3601,21 +3790,21 @@
       <c r="E34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="6">
         <v>42006</v>
       </c>
-      <c r="G34" s="6" t="n">
+      <c r="G34" s="6">
         <v>42020</v>
       </c>
-      <c r="H34" s="6" t="n">
+      <c r="H34" s="6">
         <v>42009</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="8">
         <v>3895000</v>
       </c>
-      <c r="L34" s="8" t="n">
+      <c r="L34" s="8">
         <v>3895000</v>
       </c>
       <c r="M34" s="4"/>
@@ -3627,11 +3816,11 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="4">
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -3643,21 +3832,21 @@
       <c r="E35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="6">
         <v>42006</v>
       </c>
-      <c r="G35" s="6" t="n">
+      <c r="G35" s="6">
         <v>42020</v>
       </c>
-      <c r="H35" s="6" t="n">
+      <c r="H35" s="6">
         <v>42009</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="8">
         <v>4484000</v>
       </c>
-      <c r="L35" s="8" t="n">
+      <c r="L35" s="8">
         <v>4484000</v>
       </c>
       <c r="M35" s="4"/>
@@ -3669,11 +3858,11 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="4">
         <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -3685,21 +3874,21 @@
       <c r="E36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="6">
         <v>42006</v>
       </c>
-      <c r="G36" s="6" t="n">
+      <c r="G36" s="6">
         <v>42020</v>
       </c>
-      <c r="H36" s="6" t="n">
+      <c r="H36" s="6">
         <v>42009</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="8">
         <v>4989000</v>
       </c>
-      <c r="L36" s="8" t="n">
+      <c r="L36" s="8">
         <v>4989000</v>
       </c>
       <c r="M36" s="4"/>
@@ -3711,11 +3900,11 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -3727,21 +3916,21 @@
       <c r="E37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="6">
         <v>42006</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="6">
         <v>42020</v>
       </c>
-      <c r="H37" s="6" t="n">
+      <c r="H37" s="6">
         <v>42009</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="8">
         <v>5000000</v>
       </c>
-      <c r="L37" s="8" t="n">
+      <c r="L37" s="8">
         <v>5000000</v>
       </c>
       <c r="M37" s="4"/>
@@ -3753,11 +3942,11 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="4">
         <v>30</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -3769,21 +3958,21 @@
       <c r="E38" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="6">
         <v>42006</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="6">
         <v>42020</v>
       </c>
-      <c r="H38" s="6" t="n">
+      <c r="H38" s="6">
         <v>42009</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="8">
         <v>5420000</v>
       </c>
-      <c r="L38" s="8" t="n">
+      <c r="L38" s="8">
         <v>5420000</v>
       </c>
       <c r="M38" s="4"/>
@@ -3795,11 +3984,11 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="4">
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -3811,21 +4000,21 @@
       <c r="E39" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="6">
         <v>42006</v>
       </c>
-      <c r="G39" s="6" t="n">
+      <c r="G39" s="6">
         <v>42020</v>
       </c>
-      <c r="H39" s="6" t="n">
+      <c r="H39" s="6">
         <v>42009</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="8">
         <v>5561000</v>
       </c>
-      <c r="L39" s="8" t="n">
+      <c r="L39" s="8">
         <v>5561000</v>
       </c>
       <c r="M39" s="4"/>
@@ -3837,11 +4026,11 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="4">
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3853,21 +4042,21 @@
       <c r="E40" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="6">
         <v>42006</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="6">
         <v>42020</v>
       </c>
-      <c r="H40" s="6" t="n">
+      <c r="H40" s="6">
         <v>42009</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="8" t="n">
+      <c r="K40" s="8">
         <v>5673000</v>
       </c>
-      <c r="L40" s="8" t="n">
+      <c r="L40" s="8">
         <v>5673000</v>
       </c>
       <c r="M40" s="4"/>
@@ -3879,11 +4068,11 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="4">
         <v>17</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -3895,21 +4084,21 @@
       <c r="E41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="6">
         <v>42006</v>
       </c>
-      <c r="G41" s="6" t="n">
+      <c r="G41" s="6">
         <v>42020</v>
       </c>
-      <c r="H41" s="6" t="n">
+      <c r="H41" s="6">
         <v>42009</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="8">
         <v>6804000</v>
       </c>
-      <c r="L41" s="8" t="n">
+      <c r="L41" s="8">
         <v>6804000</v>
       </c>
       <c r="M41" s="4"/>
@@ -3921,11 +4110,11 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="4">
         <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -3937,21 +4126,21 @@
       <c r="E42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="6">
         <v>42006</v>
       </c>
-      <c r="G42" s="6" t="n">
+      <c r="G42" s="6">
         <v>42020</v>
       </c>
-      <c r="H42" s="6" t="n">
+      <c r="H42" s="6">
         <v>42009</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="8">
         <v>6940000</v>
       </c>
-      <c r="L42" s="8" t="n">
+      <c r="L42" s="8">
         <v>6940000</v>
       </c>
       <c r="M42" s="4"/>
@@ -3963,11 +4152,11 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="4">
         <v>11</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3979,21 +4168,21 @@
       <c r="E43" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="6">
         <v>42006</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="6">
         <v>42020</v>
       </c>
-      <c r="H43" s="6" t="n">
+      <c r="H43" s="6">
         <v>42009</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="8" t="n">
+      <c r="K43" s="8">
         <v>11918000</v>
       </c>
-      <c r="L43" s="8" t="n">
+      <c r="L43" s="8">
         <v>11918000</v>
       </c>
       <c r="M43" s="4"/>
@@ -4005,11 +4194,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="4">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -4021,21 +4210,21 @@
       <c r="E44" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="6">
         <v>42006</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="6">
         <v>42020</v>
       </c>
-      <c r="H44" s="6" t="n">
+      <c r="H44" s="6">
         <v>42009</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="8">
         <v>19430000</v>
       </c>
-      <c r="L44" s="8" t="n">
+      <c r="L44" s="8">
         <v>19430000</v>
       </c>
       <c r="M44" s="4"/>
@@ -4047,11 +4236,11 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="4">
         <v>8</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -4063,21 +4252,21 @@
       <c r="E45" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="6">
         <v>42006</v>
       </c>
-      <c r="G45" s="6" t="n">
+      <c r="G45" s="6">
         <v>42020</v>
       </c>
-      <c r="H45" s="6" t="n">
+      <c r="H45" s="6">
         <v>42009</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="8">
         <v>23471000</v>
       </c>
-      <c r="L45" s="8" t="n">
+      <c r="L45" s="8">
         <v>23471000</v>
       </c>
       <c r="M45" s="4"/>
@@ -4089,11 +4278,11 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="4">
         <v>16</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -4105,21 +4294,21 @@
       <c r="E46" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="6">
         <v>42006</v>
       </c>
-      <c r="G46" s="6" t="n">
+      <c r="G46" s="6">
         <v>42020</v>
       </c>
-      <c r="H46" s="6" t="n">
+      <c r="H46" s="6">
         <v>42009</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="8">
         <v>24895000</v>
       </c>
-      <c r="L46" s="8" t="n">
+      <c r="L46" s="8">
         <v>24895000</v>
       </c>
       <c r="M46" s="4"/>
@@ -4131,11 +4320,11 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="4">
         <v>9</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -4147,21 +4336,21 @@
       <c r="E47" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="6">
         <v>42006</v>
       </c>
-      <c r="G47" s="6" t="n">
+      <c r="G47" s="6">
         <v>42020</v>
       </c>
-      <c r="H47" s="6" t="n">
+      <c r="H47" s="6">
         <v>42009</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="8" t="n">
+      <c r="K47" s="8">
         <v>51963000</v>
       </c>
-      <c r="L47" s="8" t="n">
+      <c r="L47" s="8">
         <v>51963000</v>
       </c>
       <c r="M47" s="4"/>
@@ -4173,11 +4362,11 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="4">
         <v>5</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -4189,21 +4378,21 @@
       <c r="E48" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="6">
         <v>42006</v>
       </c>
-      <c r="G48" s="6" t="n">
+      <c r="G48" s="6">
         <v>42020</v>
       </c>
-      <c r="H48" s="6" t="n">
+      <c r="H48" s="6">
         <v>42009</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="8" t="n">
+      <c r="K48" s="8">
         <v>52278000</v>
       </c>
-      <c r="L48" s="8" t="n">
+      <c r="L48" s="8">
         <v>52278000</v>
       </c>
       <c r="M48" s="4"/>
@@ -4215,11 +4404,11 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="4">
         <v>108</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -4231,21 +4420,21 @@
       <c r="E49" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F49" s="6">
         <v>42031</v>
       </c>
-      <c r="G49" s="6" t="n">
+      <c r="G49" s="6">
         <v>42045</v>
       </c>
-      <c r="H49" s="6" t="n">
+      <c r="H49" s="6">
         <v>42037</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="8" t="n">
+      <c r="K49" s="8">
         <v>717000</v>
       </c>
-      <c r="L49" s="8" t="n">
+      <c r="L49" s="8">
         <v>717000</v>
       </c>
       <c r="M49" s="4"/>
@@ -4257,11 +4446,11 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="4">
         <v>130</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -4273,21 +4462,21 @@
       <c r="E50" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="6">
         <v>42031</v>
       </c>
-      <c r="G50" s="6" t="n">
+      <c r="G50" s="6">
         <v>42045</v>
       </c>
-      <c r="H50" s="6" t="n">
+      <c r="H50" s="6">
         <v>42037</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="8" t="n">
+      <c r="K50" s="8">
         <v>887000</v>
       </c>
-      <c r="L50" s="8" t="n">
+      <c r="L50" s="8">
         <v>887000</v>
       </c>
       <c r="M50" s="4"/>
@@ -4299,11 +4488,11 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="4">
         <v>107</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -4315,21 +4504,21 @@
       <c r="E51" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F51" s="6">
         <v>42031</v>
       </c>
-      <c r="G51" s="6" t="n">
+      <c r="G51" s="6">
         <v>42045</v>
       </c>
-      <c r="H51" s="6" t="n">
+      <c r="H51" s="6">
         <v>42037</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="8">
         <v>1054000</v>
       </c>
-      <c r="L51" s="8" t="n">
+      <c r="L51" s="8">
         <v>1054000</v>
       </c>
       <c r="M51" s="4"/>
@@ -4341,11 +4530,11 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="4">
         <v>120</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -4357,21 +4546,21 @@
       <c r="E52" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F52" s="6">
         <v>42031</v>
       </c>
-      <c r="G52" s="6" t="n">
+      <c r="G52" s="6">
         <v>42045</v>
       </c>
-      <c r="H52" s="6" t="n">
+      <c r="H52" s="6">
         <v>42037</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="8">
         <v>1152000</v>
       </c>
-      <c r="L52" s="8" t="n">
+      <c r="L52" s="8">
         <v>1152000</v>
       </c>
       <c r="M52" s="4"/>
@@ -4383,11 +4572,11 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="4">
         <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -4399,21 +4588,21 @@
       <c r="E53" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F53" s="6">
         <v>42031</v>
       </c>
-      <c r="G53" s="6" t="n">
+      <c r="G53" s="6">
         <v>42045</v>
       </c>
-      <c r="H53" s="6" t="n">
+      <c r="H53" s="6">
         <v>42037</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="8">
         <v>1462000</v>
       </c>
-      <c r="L53" s="8" t="n">
+      <c r="L53" s="8">
         <v>1462000</v>
       </c>
       <c r="M53" s="4"/>
@@ -4425,11 +4614,11 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="4">
         <v>125</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -4441,21 +4630,21 @@
       <c r="E54" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="6">
         <v>42031</v>
       </c>
-      <c r="G54" s="6" t="n">
+      <c r="G54" s="6">
         <v>42045</v>
       </c>
-      <c r="H54" s="6" t="n">
+      <c r="H54" s="6">
         <v>42037</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="8">
         <v>1561000</v>
       </c>
-      <c r="L54" s="8" t="n">
+      <c r="L54" s="8">
         <v>1561000</v>
       </c>
       <c r="M54" s="4"/>
@@ -4467,11 +4656,11 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="4">
         <v>129</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -4483,21 +4672,21 @@
       <c r="E55" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F55" s="6">
         <v>42031</v>
       </c>
-      <c r="G55" s="6" t="n">
+      <c r="G55" s="6">
         <v>42045</v>
       </c>
-      <c r="H55" s="6" t="n">
+      <c r="H55" s="6">
         <v>42037</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="8">
         <v>1669000</v>
       </c>
-      <c r="L55" s="8" t="n">
+      <c r="L55" s="8">
         <v>1669000</v>
       </c>
       <c r="M55" s="4"/>
@@ -4509,11 +4698,11 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="4">
         <v>102</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -4525,21 +4714,21 @@
       <c r="E56" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F56" s="6">
         <v>42031</v>
       </c>
-      <c r="G56" s="6" t="n">
+      <c r="G56" s="6">
         <v>42045</v>
       </c>
-      <c r="H56" s="6" t="n">
+      <c r="H56" s="6">
         <v>42037</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="8">
         <v>1867000</v>
       </c>
-      <c r="L56" s="8" t="n">
+      <c r="L56" s="8">
         <v>1867000</v>
       </c>
       <c r="M56" s="4"/>
@@ -4551,11 +4740,11 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="4">
         <v>113</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -4567,21 +4756,21 @@
       <c r="E57" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F57" s="6" t="n">
+      <c r="F57" s="6">
         <v>42031</v>
       </c>
-      <c r="G57" s="6" t="n">
+      <c r="G57" s="6">
         <v>42045</v>
       </c>
-      <c r="H57" s="6" t="n">
+      <c r="H57" s="6">
         <v>42037</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="8" t="n">
+      <c r="K57" s="8">
         <v>2103000</v>
       </c>
-      <c r="L57" s="8" t="n">
+      <c r="L57" s="8">
         <v>2103000</v>
       </c>
       <c r="M57" s="4"/>
@@ -4593,11 +4782,11 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="4">
         <v>123</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -4609,21 +4798,21 @@
       <c r="E58" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F58" s="6" t="n">
+      <c r="F58" s="6">
         <v>42031</v>
       </c>
-      <c r="G58" s="6" t="n">
+      <c r="G58" s="6">
         <v>42045</v>
       </c>
-      <c r="H58" s="6" t="n">
+      <c r="H58" s="6">
         <v>42037</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="8">
         <v>2195000</v>
       </c>
-      <c r="L58" s="8" t="n">
+      <c r="L58" s="8">
         <v>2195000</v>
       </c>
       <c r="M58" s="4"/>
@@ -4635,11 +4824,11 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="4">
         <v>122</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -4651,21 +4840,21 @@
       <c r="E59" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F59" s="6" t="n">
+      <c r="F59" s="6">
         <v>42031</v>
       </c>
-      <c r="G59" s="6" t="n">
+      <c r="G59" s="6">
         <v>42045</v>
       </c>
-      <c r="H59" s="6" t="n">
+      <c r="H59" s="6">
         <v>42037</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="8">
         <v>2439000</v>
       </c>
-      <c r="L59" s="8" t="n">
+      <c r="L59" s="8">
         <v>2439000</v>
       </c>
       <c r="M59" s="4"/>
@@ -4677,11 +4866,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="4">
         <v>127</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -4693,21 +4882,21 @@
       <c r="E60" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="6">
         <v>42031</v>
       </c>
-      <c r="G60" s="6" t="n">
+      <c r="G60" s="6">
         <v>42045</v>
       </c>
-      <c r="H60" s="6" t="n">
+      <c r="H60" s="6">
         <v>42037</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="8">
         <v>2901000</v>
       </c>
-      <c r="L60" s="8" t="n">
+      <c r="L60" s="8">
         <v>2901000</v>
       </c>
       <c r="M60" s="4"/>
@@ -4719,11 +4908,11 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="4">
         <v>128</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -4735,21 +4924,21 @@
       <c r="E61" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F61" s="6" t="n">
+      <c r="F61" s="6">
         <v>42031</v>
       </c>
-      <c r="G61" s="6" t="n">
+      <c r="G61" s="6">
         <v>42045</v>
       </c>
-      <c r="H61" s="6" t="n">
+      <c r="H61" s="6">
         <v>42037</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="8" t="n">
+      <c r="K61" s="8">
         <v>2957000</v>
       </c>
-      <c r="L61" s="8" t="n">
+      <c r="L61" s="8">
         <v>2957000</v>
       </c>
       <c r="M61" s="4"/>
@@ -4761,11 +4950,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="4">
         <v>117</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -4777,21 +4966,21 @@
       <c r="E62" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F62" s="6" t="n">
+      <c r="F62" s="6">
         <v>42031</v>
       </c>
-      <c r="G62" s="6" t="n">
+      <c r="G62" s="6">
         <v>42045</v>
       </c>
-      <c r="H62" s="6" t="n">
+      <c r="H62" s="6">
         <v>42037</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="8" t="n">
+      <c r="K62" s="8">
         <v>3571000</v>
       </c>
-      <c r="L62" s="8" t="n">
+      <c r="L62" s="8">
         <v>3571000</v>
       </c>
       <c r="M62" s="4"/>
@@ -4803,11 +4992,11 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="4">
         <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -4819,21 +5008,21 @@
       <c r="E63" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="6" t="n">
+      <c r="F63" s="6">
         <v>42031</v>
       </c>
-      <c r="G63" s="6" t="n">
+      <c r="G63" s="6">
         <v>42045</v>
       </c>
-      <c r="H63" s="6" t="n">
+      <c r="H63" s="6">
         <v>42037</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="8" t="n">
+      <c r="K63" s="8">
         <v>3586000</v>
       </c>
-      <c r="L63" s="8" t="n">
+      <c r="L63" s="8">
         <v>3586000</v>
       </c>
       <c r="M63" s="4"/>
@@ -4845,11 +5034,11 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="4">
         <v>112</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -4861,21 +5050,21 @@
       <c r="E64" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F64" s="6" t="n">
+      <c r="F64" s="6">
         <v>42031</v>
       </c>
-      <c r="G64" s="6" t="n">
+      <c r="G64" s="6">
         <v>42045</v>
       </c>
-      <c r="H64" s="6" t="n">
+      <c r="H64" s="6">
         <v>42037</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="8" t="n">
+      <c r="K64" s="8">
         <v>3895000</v>
       </c>
-      <c r="L64" s="8" t="n">
+      <c r="L64" s="8">
         <v>3895000</v>
       </c>
       <c r="M64" s="4"/>
@@ -4887,11 +5076,11 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="4">
         <v>118</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -4903,21 +5092,21 @@
       <c r="E65" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F65" s="6" t="n">
+      <c r="F65" s="6">
         <v>42031</v>
       </c>
-      <c r="G65" s="6" t="n">
+      <c r="G65" s="6">
         <v>42045</v>
       </c>
-      <c r="H65" s="6" t="n">
+      <c r="H65" s="6">
         <v>42037</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="8" t="n">
+      <c r="K65" s="8">
         <v>4000000</v>
       </c>
-      <c r="L65" s="8" t="n">
+      <c r="L65" s="8">
         <v>4000000</v>
       </c>
       <c r="M65" s="4"/>
@@ -4929,11 +5118,11 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="4">
         <v>114</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -4945,21 +5134,21 @@
       <c r="E66" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F66" s="6" t="n">
+      <c r="F66" s="6">
         <v>42031</v>
       </c>
-      <c r="G66" s="6" t="n">
+      <c r="G66" s="6">
         <v>42045</v>
       </c>
-      <c r="H66" s="6" t="n">
+      <c r="H66" s="6">
         <v>42037</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="8" t="n">
+      <c r="K66" s="8">
         <v>4484000</v>
       </c>
-      <c r="L66" s="8" t="n">
+      <c r="L66" s="8">
         <v>4484000</v>
       </c>
       <c r="M66" s="4"/>
@@ -4971,11 +5160,11 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="4">
         <v>115</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -4987,21 +5176,21 @@
       <c r="E67" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F67" s="6" t="n">
+      <c r="F67" s="6">
         <v>42031</v>
       </c>
-      <c r="G67" s="6" t="n">
+      <c r="G67" s="6">
         <v>42045</v>
       </c>
-      <c r="H67" s="6" t="n">
+      <c r="H67" s="6">
         <v>42037</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="8" t="n">
+      <c r="K67" s="8">
         <v>4989000</v>
       </c>
-      <c r="L67" s="8" t="n">
+      <c r="L67" s="8">
         <v>4989000</v>
       </c>
       <c r="M67" s="4"/>
@@ -5013,11 +5202,11 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="4">
         <v>105</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -5029,21 +5218,21 @@
       <c r="E68" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F68" s="6" t="n">
+      <c r="F68" s="6">
         <v>42031</v>
       </c>
-      <c r="G68" s="6" t="n">
+      <c r="G68" s="6">
         <v>42045</v>
       </c>
-      <c r="H68" s="6" t="n">
+      <c r="H68" s="6">
         <v>42037</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="8">
         <v>5420000</v>
       </c>
-      <c r="L68" s="8" t="n">
+      <c r="L68" s="8">
         <v>5420000</v>
       </c>
       <c r="M68" s="4"/>
@@ -5055,11 +5244,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="4">
         <v>103</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -5071,21 +5260,21 @@
       <c r="E69" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F69" s="6" t="n">
+      <c r="F69" s="6">
         <v>42031</v>
       </c>
-      <c r="G69" s="6" t="n">
+      <c r="G69" s="6">
         <v>42045</v>
       </c>
-      <c r="H69" s="6" t="n">
+      <c r="H69" s="6">
         <v>42037</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="8">
         <v>5673000</v>
       </c>
-      <c r="L69" s="8" t="n">
+      <c r="L69" s="8">
         <v>5673000</v>
       </c>
       <c r="M69" s="4"/>
@@ -5097,11 +5286,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="4">
         <v>111</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -5113,21 +5302,21 @@
       <c r="E70" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F70" s="6" t="n">
+      <c r="F70" s="6">
         <v>42031</v>
       </c>
-      <c r="G70" s="6" t="n">
+      <c r="G70" s="6">
         <v>42045</v>
       </c>
-      <c r="H70" s="6" t="n">
+      <c r="H70" s="6">
         <v>42037</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="8" t="n">
+      <c r="K70" s="8">
         <v>6804000</v>
       </c>
-      <c r="L70" s="8" t="n">
+      <c r="L70" s="8">
         <v>6804000</v>
       </c>
       <c r="M70" s="4"/>
@@ -5139,11 +5328,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="4">
         <v>106</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -5155,21 +5344,21 @@
       <c r="E71" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F71" s="6" t="n">
+      <c r="F71" s="6">
         <v>42031</v>
       </c>
-      <c r="G71" s="6" t="n">
+      <c r="G71" s="6">
         <v>42045</v>
       </c>
-      <c r="H71" s="6" t="n">
+      <c r="H71" s="6">
         <v>42037</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="8" t="n">
+      <c r="K71" s="8">
         <v>6940000</v>
       </c>
-      <c r="L71" s="8" t="n">
+      <c r="L71" s="8">
         <v>6940000</v>
       </c>
       <c r="M71" s="4"/>
@@ -5181,11 +5370,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="4">
         <v>124</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -5197,21 +5386,21 @@
       <c r="E72" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F72" s="6" t="n">
+      <c r="F72" s="6">
         <v>42031</v>
       </c>
-      <c r="G72" s="6" t="n">
+      <c r="G72" s="6">
         <v>42045</v>
       </c>
-      <c r="H72" s="6" t="n">
+      <c r="H72" s="6">
         <v>42037</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="8" t="n">
+      <c r="K72" s="8">
         <v>11918000</v>
       </c>
-      <c r="L72" s="8" t="n">
+      <c r="L72" s="8">
         <v>11918000</v>
       </c>
       <c r="M72" s="4"/>
@@ -5223,11 +5412,11 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="4">
         <v>109</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -5239,21 +5428,21 @@
       <c r="E73" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F73" s="6" t="n">
+      <c r="F73" s="6">
         <v>42031</v>
       </c>
-      <c r="G73" s="6" t="n">
+      <c r="G73" s="6">
         <v>42045</v>
       </c>
-      <c r="H73" s="6" t="n">
+      <c r="H73" s="6">
         <v>42037</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="8" t="n">
+      <c r="K73" s="8">
         <v>19430000</v>
       </c>
-      <c r="L73" s="8" t="n">
+      <c r="L73" s="8">
         <v>19430000</v>
       </c>
       <c r="M73" s="4"/>
@@ -5265,11 +5454,11 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="4">
         <v>104</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -5281,21 +5470,21 @@
       <c r="E74" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F74" s="6" t="n">
+      <c r="F74" s="6">
         <v>42031</v>
       </c>
-      <c r="G74" s="6" t="n">
+      <c r="G74" s="6">
         <v>42045</v>
       </c>
-      <c r="H74" s="6" t="n">
+      <c r="H74" s="6">
         <v>42037</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="8" t="n">
+      <c r="K74" s="8">
         <v>23471000</v>
       </c>
-      <c r="L74" s="8" t="n">
+      <c r="L74" s="8">
         <v>23471000</v>
       </c>
       <c r="M74" s="4"/>
@@ -5307,11 +5496,11 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="4">
         <v>110</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -5323,21 +5512,21 @@
       <c r="E75" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F75" s="6" t="n">
+      <c r="F75" s="6">
         <v>42031</v>
       </c>
-      <c r="G75" s="6" t="n">
+      <c r="G75" s="6">
         <v>42045</v>
       </c>
-      <c r="H75" s="6" t="n">
+      <c r="H75" s="6">
         <v>42037</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="8" t="n">
+      <c r="K75" s="8">
         <v>24895000</v>
       </c>
-      <c r="L75" s="8" t="n">
+      <c r="L75" s="8">
         <v>24895000</v>
       </c>
       <c r="M75" s="4"/>
@@ -5349,11 +5538,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="4">
         <v>126</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -5365,21 +5554,21 @@
       <c r="E76" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="6" t="n">
+      <c r="F76" s="6">
         <v>42031</v>
       </c>
-      <c r="G76" s="6" t="n">
+      <c r="G76" s="6">
         <v>42045</v>
       </c>
-      <c r="H76" s="6" t="n">
+      <c r="H76" s="6">
         <v>42037</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="8" t="n">
+      <c r="K76" s="8">
         <v>51963000</v>
       </c>
-      <c r="L76" s="8" t="n">
+      <c r="L76" s="8">
         <v>51963000</v>
       </c>
       <c r="M76" s="4"/>
@@ -5391,11 +5580,11 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="4">
         <v>121</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -5407,21 +5596,21 @@
       <c r="E77" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F77" s="6" t="n">
+      <c r="F77" s="6">
         <v>42031</v>
       </c>
-      <c r="G77" s="6" t="n">
+      <c r="G77" s="6">
         <v>42045</v>
       </c>
-      <c r="H77" s="6" t="n">
+      <c r="H77" s="6">
         <v>42037</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="8" t="n">
+      <c r="K77" s="8">
         <v>52278000</v>
       </c>
-      <c r="L77" s="8" t="n">
+      <c r="L77" s="8">
         <v>52278000</v>
       </c>
       <c r="M77" s="4"/>
@@ -5433,11 +5622,11 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="4">
         <v>92</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -5449,21 +5638,21 @@
       <c r="E78" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F78" s="6" t="n">
+      <c r="F78" s="6">
         <v>42026</v>
       </c>
-      <c r="G78" s="6" t="n">
+      <c r="G78" s="6">
         <v>42040</v>
       </c>
-      <c r="H78" s="6" t="n">
+      <c r="H78" s="6">
         <v>42027</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="8" t="n">
+      <c r="K78" s="8">
         <v>2000000</v>
       </c>
-      <c r="L78" s="8" t="n">
+      <c r="L78" s="8">
         <v>2000000</v>
       </c>
       <c r="M78" s="4"/>
@@ -5476,40 +5665,32 @@
       <c r="R78" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1457489878542"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.5546875"/>
+    <col min="3" max="3" width="11"/>
+    <col min="4" max="4" width="22.109375"/>
+    <col min="5" max="5" width="19"/>
+    <col min="6" max="9" width="8.5546875"/>
+    <col min="10" max="10" width="14.6640625"/>
+    <col min="11" max="11" width="13.6640625"/>
+    <col min="12" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5522,7 +5703,9 @@
       <c r="D1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>223</v>
       </c>
@@ -5542,11 +5725,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -5564,24 +5747,19 @@
       <c r="G2" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="17" t="n">
+      <c r="H2" s="17">
         <v>42016</v>
       </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="18" t="n">
+      <c r="J2" s="18">
         <v>87500</v>
       </c>
-      <c r="K2" s="18" t="n">
+      <c r="K2" s="18">
         <v>87500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>